--- a/Performance KPI.xlsx
+++ b/Performance KPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1018d861f9c58f7/Documents/TCSGenAIBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F265933F-B564-4EE2-A91B-1E999D5E4D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{F265933F-B564-4EE2-A91B-1E999D5E4D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166E0C3C-EB8C-4254-B4F4-1A5336E08317}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E760ECB2-DA2D-4879-95F0-8BDC83284B14}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S No</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Code covered by performance tests</t>
+  </si>
+  <si>
+    <t>Value adds created per year</t>
+  </si>
+  <si>
+    <t>Time saving per till now</t>
+  </si>
+  <si>
+    <t>Improvement in Total execution time</t>
   </si>
 </sst>
 </file>
@@ -142,12 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCB487E-55F5-48EA-977F-6C1BDC1DD9A7}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +594,33 @@
       </c>
       <c r="C12" s="1"/>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
